--- a/reporte_excel.xlsx
+++ b/reporte_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,10 +1008,10 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-15154642.17</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-17051936.92</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1025,27 +1025,15 @@
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>14</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Interests received</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>FINANCING</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>2898.16</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2323.64</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -1054,21 +1042,33 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Interests received</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FINANCING</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>2898.16</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F30" t="n">
         <v>2323.64</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1077,12 +1077,34 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
+        <v>2898.16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2323.64</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>24495490.49999999</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F33" t="n">
         <v>7445877.219999999</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
